--- a/biology/Botanique/Trèfle_hybride/Trèfle_hybride.xlsx
+++ b/biology/Botanique/Trèfle_hybride/Trèfle_hybride.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Tr%C3%A8fle_hybride</t>
+          <t>Trèfle_hybride</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Trifolium hybridum
 Le Trèfle hybride (Trifolium hybridum ) est une plante herbacée appartenant au genre Trifolium et à la famille des Fabacées (ou légumineuses). C'est une espèce prairiale annuelle ou bisannuelle fréquemment utilisée comme fourrage.
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Tr%C3%A8fle_hybride</t>
+          <t>Trèfle_hybride</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,11 +525,13 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est une plante annuelle ou bisannuelle de 25 à 60 cm, à tige glabre, ascendante et peu ramifiée. Les feuilles sont alternes, trifoliolées, à folioles étroites, émoussées et dentées, de 1 à 2 cm de long. Les stipules unies au pétiole[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est une plante annuelle ou bisannuelle de 25 à 60 cm, à tige glabre, ascendante et peu ramifiée. Les feuilles sont alternes, trifoliolées, à folioles étroites, émoussées et dentées, de 1 à 2 cm de long. Les stipules unies au pétiole.
 La floraison a lieu de juillet à août. Les fleurs sont d'un blanc sale ou rosées et assez grandes. Les gousses sont des cosses indéhiscentes incluses dans le calice.
-Les fleurs sont à corolle irrégulière (zygomorphe) de 7 à 12 mm de long. Les cinq pétales sont blancs à rougeâtres, puis marron. Capitule de fleurs blanches et roses réunies en une tête, 20-35 mm de largeur, sur un long pédoncule[2].
+Les fleurs sont à corolle irrégulière (zygomorphe) de 7 à 12 mm de long. Les cinq pétales sont blancs à rougeâtres, puis marron. Capitule de fleurs blanches et roses réunies en une tête, 20-35 mm de largeur, sur un long pédoncule.
 </t>
         </is>
       </c>
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Tr%C3%A8fle_hybride</t>
+          <t>Trèfle_hybride</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,12 +560,14 @@
           <t>Distribution et habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Générale au Québec et dans les Maritimes.
-La forme cultivée, Trifolium hybridum subsp. hybridum, a été introduite dans les îles Britanniques et dans toutes les régions tempérées du monde, où elle s'est souvent naturalisée[3].
+La forme cultivée, Trifolium hybridum subsp. hybridum, a été introduite dans les îles Britanniques et dans toutes les régions tempérées du monde, où elle s'est souvent naturalisée.
 Du fait de son adaptation à des sols plus froids et humides que ceux exigés par les autres espèces du même genre (trèfle blanc, Trifolium breersim, Trigolium fragiferum), sa culture se pratique essentiellement dans les zones froides et subarctiques de l'hémisphère nord.
-La plante croît naturellement le long des chemins et des cours d'eau, dans les champs en friche, dans les prairies humides, sur les flancs des montagnes[4],[5] champs cultivés, prés, pâturages et bords des routes. Floraison juin à octobre[6].
+La plante croît naturellement le long des chemins et des cours d'eau, dans les champs en friche, dans les prairies humides, sur les flancs des montagnes, champs cultivés, prés, pâturages et bords des routes. Floraison juin à octobre.
 </t>
         </is>
       </c>
@@ -562,7 +578,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Tr%C3%A8fle_hybride</t>
+          <t>Trèfle_hybride</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -580,14 +596,16 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Très résistant au froid et à la submersion, le trèfle hybride est courant dans les champs, les prairies, en bord de routes.
 Il est adapté aux sols compactés, humides et asphyxiants et s’accommode de terres peu profondes. Par contre, il est peu tolérant à la chaleur et à la sécheresse.
-C'est une bonne espèce mellifère reconnue[7].
-Sa valeur alimentaire est bonne[8].
+C'est une bonne espèce mellifère reconnue.
+Sa valeur alimentaire est bonne.
 Pour fourrage vert au 1er cycle, fauché en début floraison, en g/kg de matière sèche(MS) on trouve :
-MS : 123; MAT : 195; UFL : 0,89; UFV : 0,84; PDIN[9] : 122; PDIE[10] : 97
+MS : 123; MAT : 195; UFL : 0,89; UFV : 0,84; PDIN : 122; PDIE : 97
 </t>
         </is>
       </c>
